--- a/output/teachers_schedule.xlsx
+++ b/output/teachers_schedule.xlsx
@@ -7,17 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="入野 僚介" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="高野 安紀" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="渡邊 塁" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="松永 愛央" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="米田 叡付" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="和田 歩夢" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="劉 東軒" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="松本 海大" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="山口 喜輝" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="新田 隼士" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="安田 貴時" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="入野" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="高野" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="渡邊" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="松永" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="米田" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="和田" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="劉" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="松本" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="山口" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="新田" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="安田" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1430,12 +1430,12 @@
       <c r="J5" s="20" t="n"/>
       <c r="K5" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="L5" s="22" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       <c r="J6" s="20" t="n"/>
       <c r="K6" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:理系</t>
+          <t>増田:理通</t>
         </is>
       </c>
       <c r="L6" s="22" t="n"/>
@@ -1472,37 +1472,37 @@
       <c r="D7" s="20" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:算数</t>
+          <t>増田:算講</t>
         </is>
       </c>
       <c r="F7" s="23" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="H7" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:算数</t>
+          <t>増田:算講</t>
         </is>
       </c>
       <c r="J7" s="23" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="K7" s="21" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="L7" s="22" t="n"/>
@@ -1518,32 +1518,32 @@
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:数学</t>
+          <t>松井:数通</t>
         </is>
       </c>
       <c r="F8" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:数学</t>
+          <t>松井:数通</t>
         </is>
       </c>
       <c r="J8" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="K8" s="21" t="n"/>
@@ -1560,32 +1560,32 @@
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="28" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="F9" s="29" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="G9" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="H9" s="29" t="inlineStr">
         <is>
-          <t>仲村 海音:数学</t>
+          <t>仲村:数講</t>
         </is>
       </c>
       <c r="I9" s="28" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="J9" s="29" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="K9" s="28" t="n"/>
@@ -1722,22 +1722,22 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:算数</t>
+          <t>増田:算講</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="F15" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="G15" s="32" t="n"/>
@@ -1756,22 +1756,22 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:数学</t>
+          <t>松井:数通</t>
         </is>
       </c>
       <c r="D16" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="F16" s="23" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="G16" s="32" t="n"/>
@@ -1790,22 +1790,22 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="E17" s="28" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
       <c r="F17" s="29" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="G17" s="36" t="n"/>
@@ -1910,52 +1910,52 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="F21" s="21" t="inlineStr">
         <is>
-          <t>仲村 海音:数学</t>
+          <t>仲村:数講</t>
         </is>
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="J21" s="23" t="inlineStr">
         <is>
-          <t>安平 紗菜:数学</t>
+          <t>安平:数講</t>
         </is>
       </c>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="L21" s="22" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
     </row>
@@ -1968,44 +1968,44 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:理系</t>
+          <t>増田:理通</t>
         </is>
       </c>
       <c r="F22" s="21" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="H22" s="40" t="inlineStr">
         <is>
-          <t>俵 潤:数学</t>
+          <t>俵:数講</t>
         </is>
       </c>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:理系</t>
+          <t>増田:理通</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="L22" s="22" t="inlineStr">
         <is>
-          <t>俵 潤:数学</t>
+          <t>俵:数講</t>
         </is>
       </c>
     </row>
@@ -2018,31 +2018,31 @@
       <c r="B23" s="15" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>俵 潤:数学</t>
+          <t>俵:数講</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
       <c r="F23" s="21" t="n"/>
       <c r="G23" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="H23" s="40" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="I23" s="23" t="n"/>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="L23" s="22" t="n"/>
@@ -2056,23 +2056,23 @@
       <c r="B24" s="15" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="F24" s="21" t="n"/>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="H24" s="40" t="n"/>
@@ -2090,12 +2090,12 @@
       <c r="B25" s="25" t="n"/>
       <c r="C25" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="D25" s="28" t="inlineStr">
         <is>
-          <t>安平 紗菜:数学</t>
+          <t>安平:数講</t>
         </is>
       </c>
       <c r="E25" s="28" t="n"/>
@@ -2104,7 +2104,7 @@
       <c r="H25" s="41" t="n"/>
       <c r="I25" s="28" t="inlineStr">
         <is>
-          <t>仲村 海音:数学</t>
+          <t>仲村:数講</t>
         </is>
       </c>
       <c r="J25" s="29" t="n"/>
@@ -2213,28 +2213,28 @@
       <c r="D29" s="20" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="F29" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="G29" s="23" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="J29" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="K29" s="43" t="n"/>
@@ -2251,24 +2251,24 @@
       <c r="D30" s="20" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="F30" s="23" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="G30" s="23" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="J30" s="23" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="K30" s="45" t="n"/>
@@ -2285,24 +2285,24 @@
       <c r="D31" s="20" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="F31" s="23" t="inlineStr">
         <is>
-          <t>俵 潤:数学</t>
+          <t>俵:数講</t>
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="J31" s="23" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="K31" s="47" t="n"/>
@@ -2319,34 +2319,34 @@
       <c r="D32" s="20" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="F32" s="23" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="23" t="n"/>
       <c r="I32" s="21" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
       <c r="J32" s="23" t="inlineStr">
         <is>
-          <t>安平 紗菜:数学</t>
+          <t>安平:数講</t>
         </is>
       </c>
       <c r="K32" s="49" t="inlineStr">
         <is>
-          <t>俵 潤:数学</t>
+          <t>俵:数講</t>
         </is>
       </c>
       <c r="L32" s="50" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="F33" s="29" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
       <c r="G33" s="28" t="n"/>
       <c r="H33" s="29" t="n"/>
       <c r="I33" s="28" t="inlineStr">
         <is>
-          <t>増田 ことの:理系</t>
+          <t>増田:理通</t>
         </is>
       </c>
       <c r="J33" s="29" t="n"/>
@@ -2511,32 +2511,32 @@
       <c r="B39" s="15" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="F39" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="H39" s="40" t="inlineStr">
         <is>
-          <t>中津 知佳:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="I39" s="19" t="n"/>
@@ -2553,44 +2553,44 @@
       <c r="B40" s="15" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:算数</t>
+          <t>前原:算講</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="F40" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:数学</t>
+          <t>吉益:数講</t>
         </is>
       </c>
       <c r="H40" s="40" t="inlineStr">
         <is>
-          <t>仲村 海音:数学</t>
+          <t>仲村:数講</t>
         </is>
       </c>
       <c r="I40" s="19" t="n"/>
       <c r="J40" s="20" t="n"/>
       <c r="K40" s="49" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:算数</t>
+          <t>ローズ:算講</t>
         </is>
       </c>
       <c r="L40" s="50" t="inlineStr">
         <is>
-          <t>内海 光乃:数学</t>
+          <t>内海:数講</t>
         </is>
       </c>
     </row>
@@ -2603,52 +2603,52 @@
       <c r="B41" s="25" t="n"/>
       <c r="C41" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="D41" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="E41" s="28" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
       <c r="F41" s="28" t="inlineStr">
         <is>
-          <t>安平 紗菜:数学</t>
+          <t>安平:数講</t>
         </is>
       </c>
       <c r="G41" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="H41" s="41" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="I41" s="28" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="J41" s="29" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="K41" s="51" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="L41" s="52" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
     </row>
@@ -2809,12 +2809,12 @@
       <c r="J48" s="20" t="n"/>
       <c r="K48" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="L48" s="22" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
     </row>
@@ -2827,52 +2827,52 @@
       <c r="B49" s="25" t="n"/>
       <c r="C49" s="28" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="D49" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:数学</t>
+          <t>高橋:数講</t>
         </is>
       </c>
       <c r="E49" s="28" t="inlineStr">
         <is>
-          <t>佐竹 優:数学</t>
+          <t>佐竹:数講</t>
         </is>
       </c>
       <c r="F49" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:数学</t>
+          <t>曳野:数講</t>
         </is>
       </c>
       <c r="G49" s="28" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:数学</t>
+          <t>田嶋:数講</t>
         </is>
       </c>
       <c r="H49" s="41" t="inlineStr">
         <is>
-          <t>仲村 海音:数学</t>
+          <t>仲村:数講</t>
         </is>
       </c>
       <c r="I49" s="28" t="inlineStr">
         <is>
-          <t>佐山 樹:算数</t>
+          <t>佐山:算講</t>
         </is>
       </c>
       <c r="J49" s="29" t="inlineStr">
         <is>
-          <t>寺田 幸村:数学</t>
+          <t>寺田:数講</t>
         </is>
       </c>
       <c r="K49" s="28" t="inlineStr">
         <is>
-          <t>安平 紗菜:数学</t>
+          <t>安平:数講</t>
         </is>
       </c>
       <c r="L49" s="30" t="inlineStr">
         <is>
-          <t>増田 ことの:理系</t>
+          <t>増田:理通</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="J6" s="20" t="n"/>
       <c r="K6" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="L6" s="22" t="n"/>
@@ -3439,25 +3439,25 @@
       <c r="B7" s="15" t="n"/>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="D7" s="23" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>近藤 大倖:英語</t>
+          <t>近藤:英講</t>
         </is>
       </c>
       <c r="F7" s="23" t="n"/>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="H7" s="23" t="n"/>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>近藤 大倖:英語</t>
+          <t>近藤:英講</t>
         </is>
       </c>
       <c r="J7" s="23" t="n"/>
@@ -3637,7 +3637,7 @@
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="23" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -3659,7 +3659,7 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>近藤 大倖:英語</t>
+          <t>近藤:英講</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -3787,12 +3787,12 @@
       <c r="J21" s="20" t="n"/>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>近藤 大倖:英語</t>
+          <t>近藤:英講</t>
         </is>
       </c>
       <c r="L21" s="22" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       <c r="H29" s="20" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -4185,7 +4185,7 @@
       <c r="H39" s="53" t="n"/>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -4365,7 +4365,7 @@
       <c r="H47" s="53" t="n"/>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:英語</t>
+          <t>石綿:英講</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -4874,7 +4874,7 @@
       <c r="D7" s="20" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F7" s="23" t="n"/>
@@ -4896,7 +4896,7 @@
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F8" s="23" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="D15" s="20" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F15" s="23" t="n"/>
@@ -5080,7 +5080,7 @@
       <c r="D16" s="20" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F16" s="23" t="n"/>
@@ -5206,7 +5206,7 @@
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F21" s="21" t="n"/>
@@ -5264,7 +5264,7 @@
       <c r="D24" s="19" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F24" s="21" t="n"/>
@@ -5390,7 +5390,7 @@
       <c r="D29" s="20" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F29" s="23" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="D32" s="20" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F32" s="23" t="n"/>
@@ -5610,7 +5610,7 @@
       <c r="D39" s="19" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F39" s="21" t="n"/>
@@ -5632,7 +5632,7 @@
       <c r="D40" s="19" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F40" s="21" t="n"/>
@@ -5794,7 +5794,7 @@
       <c r="D47" s="19" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>吉益 煌:英語</t>
+          <t>吉益:英講</t>
         </is>
       </c>
       <c r="F47" s="21" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="D48" s="19" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>藤内 潤:数学</t>
+          <t>藤内:数講</t>
         </is>
       </c>
       <c r="F48" s="21" t="n"/>
@@ -6294,12 +6294,12 @@
       <c r="B7" s="15" t="n"/>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>中村 正人:数学</t>
+          <t>中村:数通</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -6308,12 +6308,12 @@
       <c r="H7" s="20" t="n"/>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>中村 正人:数学</t>
+          <t>中村:数通</t>
         </is>
       </c>
       <c r="J7" s="23" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="K7" s="19" t="n"/>
@@ -6328,12 +6328,12 @@
       <c r="B8" s="15" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -6342,22 +6342,22 @@
       <c r="H8" s="20" t="n"/>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="J8" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="K8" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="L8" s="22" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
     </row>
@@ -6370,12 +6370,12 @@
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="E9" s="26" t="n"/>
@@ -6384,12 +6384,12 @@
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="28" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="J9" s="29" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="K9" s="28" t="n"/>
@@ -6526,12 +6526,12 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>中村 正人:数学</t>
+          <t>中村:数通</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="E15" s="19" t="n"/>
@@ -6540,12 +6540,12 @@
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="K15" s="19" t="n"/>
@@ -6560,12 +6560,12 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="D16" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="E16" s="19" t="n"/>
@@ -6574,17 +6574,17 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="J16" s="23" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="K16" s="21" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="L16" s="22" t="n"/>
@@ -6598,12 +6598,12 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="E17" s="26" t="n"/>
@@ -6612,17 +6612,17 @@
       <c r="H17" s="37" t="n"/>
       <c r="I17" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="J17" s="29" t="inlineStr">
         <is>
-          <t>西野 結菜:数学</t>
+          <t>西野:数講</t>
         </is>
       </c>
       <c r="K17" s="28" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="L17" s="30" t="n"/>
@@ -6722,12 +6722,12 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
@@ -6736,12 +6736,12 @@
       <c r="H21" s="53" t="n"/>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="J21" s="23" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="K21" s="19" t="n"/>
@@ -6756,12 +6756,12 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="E22" s="19" t="n"/>
@@ -6770,12 +6770,12 @@
       <c r="H22" s="53" t="n"/>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="J22" s="23" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="K22" s="19" t="n"/>
@@ -6790,12 +6790,12 @@
       <c r="B23" s="15" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
@@ -6804,12 +6804,12 @@
       <c r="H23" s="53" t="n"/>
       <c r="I23" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="J23" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="K23" s="19" t="n"/>
@@ -6824,12 +6824,12 @@
       <c r="B24" s="15" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>西野 結菜:数学</t>
+          <t>西野:数講</t>
         </is>
       </c>
       <c r="E24" s="19" t="n"/>
@@ -6838,7 +6838,7 @@
       <c r="H24" s="53" t="n"/>
       <c r="I24" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -6958,12 +6958,12 @@
       <c r="B29" s="15" t="n"/>
       <c r="C29" s="23" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="D29" s="23" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="E29" s="19" t="n"/>
@@ -6972,12 +6972,12 @@
       <c r="H29" s="20" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="J29" s="23" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="K29" s="43" t="n"/>
@@ -6992,12 +6992,12 @@
       <c r="B30" s="15" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="E30" s="19" t="n"/>
@@ -7006,12 +7006,12 @@
       <c r="H30" s="20" t="n"/>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="J30" s="23" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="K30" s="45" t="n"/>
@@ -7026,12 +7026,12 @@
       <c r="B31" s="15" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="E31" s="19" t="n"/>
@@ -7040,12 +7040,12 @@
       <c r="H31" s="20" t="n"/>
       <c r="I31" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="J31" s="23" t="inlineStr">
         <is>
-          <t>西野 結菜:数学</t>
+          <t>西野:数講</t>
         </is>
       </c>
       <c r="K31" s="47" t="n"/>
@@ -7060,12 +7060,12 @@
       <c r="B32" s="15" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="E32" s="19" t="n"/>
@@ -7074,17 +7074,17 @@
       <c r="H32" s="20" t="n"/>
       <c r="I32" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="J32" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="K32" s="49" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="L32" s="50" t="n"/>
@@ -7098,12 +7098,12 @@
       <c r="B33" s="25" t="n"/>
       <c r="C33" s="28" t="inlineStr">
         <is>
-          <t>西野 結菜:数学</t>
+          <t>西野:数講</t>
         </is>
       </c>
       <c r="D33" s="29" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="E33" s="26" t="n"/>
@@ -7246,12 +7246,12 @@
       <c r="B39" s="15" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="E39" s="19" t="n"/>
@@ -7260,12 +7260,12 @@
       <c r="H39" s="53" t="n"/>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="J39" s="23" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="K39" s="54" t="n"/>
@@ -7280,12 +7280,12 @@
       <c r="B40" s="15" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:数学</t>
+          <t>梅田:数講</t>
         </is>
       </c>
       <c r="E40" s="19" t="n"/>
@@ -7294,17 +7294,17 @@
       <c r="H40" s="53" t="n"/>
       <c r="I40" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="J40" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="K40" s="49" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="L40" s="50" t="n"/>
@@ -7318,12 +7318,12 @@
       <c r="B41" s="25" t="n"/>
       <c r="C41" s="28" t="inlineStr">
         <is>
-          <t>田中 にこ:数学</t>
+          <t>田中:数講</t>
         </is>
       </c>
       <c r="D41" s="28" t="inlineStr">
         <is>
-          <t>吉田 薫:数学</t>
+          <t>吉田:数講</t>
         </is>
       </c>
       <c r="E41" s="26" t="n"/>
@@ -7332,12 +7332,12 @@
       <c r="H41" s="64" t="n"/>
       <c r="I41" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:数学</t>
+          <t>平田:数講</t>
         </is>
       </c>
       <c r="J41" s="29" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="K41" s="51" t="n"/>
@@ -7474,12 +7474,12 @@
       <c r="B47" s="15" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:算数</t>
+          <t>森下:算講</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="E47" s="19" t="n"/>
@@ -7488,12 +7488,12 @@
       <c r="H47" s="53" t="n"/>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:算数</t>
+          <t>末光:算講</t>
         </is>
       </c>
       <c r="J47" s="23" t="inlineStr">
         <is>
-          <t>田口 晴椛:国語</t>
+          <t>田口:国講</t>
         </is>
       </c>
       <c r="K47" s="19" t="n"/>
@@ -7508,12 +7508,12 @@
       <c r="B48" s="15" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="E48" s="19" t="n"/>
@@ -7522,12 +7522,12 @@
       <c r="H48" s="53" t="n"/>
       <c r="I48" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:英語</t>
+          <t>玉屋:英講</t>
         </is>
       </c>
       <c r="J48" s="23" t="inlineStr">
         <is>
-          <t>冨永 直希:数学</t>
+          <t>冨永:数講</t>
         </is>
       </c>
       <c r="K48" s="21" t="n"/>
@@ -7542,7 +7542,7 @@
       <c r="B49" s="25" t="n"/>
       <c r="C49" s="28" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="D49" s="28" t="n"/>
@@ -7552,7 +7552,7 @@
       <c r="H49" s="64" t="n"/>
       <c r="I49" s="28" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:数学</t>
+          <t>丸本:数講</t>
         </is>
       </c>
       <c r="J49" s="29" t="n"/>
@@ -8268,12 +8268,12 @@
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>近藤 大倖:数学</t>
+          <t>近藤:数講</t>
         </is>
       </c>
       <c r="K15" s="19" t="n"/>
@@ -8294,12 +8294,12 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="J16" s="23" t="inlineStr">
         <is>
-          <t>酒井 康行:理系</t>
+          <t>酒井:理講</t>
         </is>
       </c>
       <c r="K16" s="21" t="n"/>
@@ -8320,13 +8320,13 @@
       <c r="H17" s="37" t="n"/>
       <c r="I17" s="28" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="J17" s="29" t="n"/>
       <c r="K17" s="28" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="L17" s="30" t="n"/>
@@ -8428,32 +8428,32 @@
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="F21" s="21" t="inlineStr">
         <is>
-          <t>侯 景耀:数学</t>
+          <t>侯:数通</t>
         </is>
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国算</t>
+          <t>中津:国通</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>田口 晴椛:算数</t>
+          <t>田口:算講</t>
         </is>
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="J21" s="23" t="inlineStr">
         <is>
-          <t>侯 景耀:数学</t>
+          <t>侯:数通</t>
         </is>
       </c>
       <c r="K21" s="19" t="n"/>
@@ -8470,28 +8470,28 @@
       <c r="D22" s="19" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="F22" s="21" t="inlineStr">
         <is>
-          <t>近藤 大倖:数学</t>
+          <t>近藤:数講</t>
         </is>
       </c>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:理系</t>
+          <t>酒井:理講</t>
         </is>
       </c>
       <c r="H22" s="40" t="n"/>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="J22" s="23" t="inlineStr">
         <is>
-          <t>近藤 大倖:数学</t>
+          <t>近藤:数講</t>
         </is>
       </c>
       <c r="K22" s="19" t="n"/>
@@ -8508,24 +8508,24 @@
       <c r="D23" s="19" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="F23" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:数学</t>
+          <t>玉屋:数講</t>
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="40" t="n"/>
       <c r="I23" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="J23" s="23" t="inlineStr">
         <is>
-          <t>玉屋 優虎:数学</t>
+          <t>玉屋:数講</t>
         </is>
       </c>
       <c r="K23" s="19" t="n"/>
@@ -8542,19 +8542,19 @@
       <c r="D24" s="19" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="F24" s="21" t="inlineStr">
         <is>
-          <t>小副川 怜:数学</t>
+          <t>小副川:数講</t>
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="40" t="n"/>
       <c r="I24" s="40" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -8676,28 +8676,28 @@
       <c r="D29" s="20" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:算数</t>
+          <t>中津:算講</t>
         </is>
       </c>
       <c r="F29" s="23" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>田口 晴椛:算数</t>
+          <t>田口:算講</t>
         </is>
       </c>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国算</t>
+          <t>中津:国通</t>
         </is>
       </c>
       <c r="J29" s="23" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="K29" s="43" t="n"/>
@@ -8714,24 +8714,24 @@
       <c r="D30" s="20" t="n"/>
       <c r="E30" s="23" t="inlineStr">
         <is>
-          <t>中津 智成:国算</t>
+          <t>中津:国通</t>
         </is>
       </c>
       <c r="F30" s="23" t="inlineStr">
         <is>
-          <t>玉屋 優虎:数学</t>
+          <t>玉屋:数講</t>
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>玉屋 優虎:数学</t>
+          <t>玉屋:数講</t>
         </is>
       </c>
       <c r="J30" s="23" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="K30" s="45" t="n"/>
@@ -8748,19 +8748,19 @@
       <c r="D31" s="20" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="F31" s="23" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -8778,7 +8778,7 @@
       <c r="D32" s="20" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:理系</t>
+          <t>酒井:理講</t>
         </is>
       </c>
       <c r="F32" s="23" t="n"/>
@@ -8788,7 +8788,7 @@
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="49" t="inlineStr">
         <is>
-          <t>侯 景耀:数学</t>
+          <t>侯:数通</t>
         </is>
       </c>
       <c r="L32" s="50" t="n"/>
@@ -8944,32 +8944,32 @@
       <c r="D39" s="19" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="F39" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>田口 晴椛:算数</t>
+          <t>田口:算講</t>
         </is>
       </c>
       <c r="H39" s="40" t="inlineStr">
         <is>
-          <t>玉屋 優虎:数学</t>
+          <t>玉屋:数講</t>
         </is>
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国算</t>
+          <t>中津:国通</t>
         </is>
       </c>
       <c r="J39" s="23" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="K39" s="54" t="n"/>
@@ -8986,28 +8986,28 @@
       <c r="D40" s="19" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>小副川 怜:数学</t>
+          <t>小副川:数講</t>
         </is>
       </c>
       <c r="F40" s="21" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:理系</t>
+          <t>酒井:理講</t>
         </is>
       </c>
       <c r="H40" s="40" t="n"/>
       <c r="I40" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="J40" s="23" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="K40" s="49" t="n"/>
@@ -9164,24 +9164,24 @@
       <c r="D47" s="19" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="F47" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="G47" s="19" t="n"/>
       <c r="H47" s="53" t="n"/>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>中津 智成:国算</t>
+          <t>中津:国通</t>
         </is>
       </c>
       <c r="J47" s="23" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:算数</t>
+          <t>荒井:算講</t>
         </is>
       </c>
       <c r="K47" s="19" t="n"/>
@@ -9198,24 +9198,24 @@
       <c r="D48" s="19" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>小副川 怜:数学</t>
+          <t>小副川:数講</t>
         </is>
       </c>
       <c r="F48" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:理系</t>
+          <t>酒井:理講</t>
         </is>
       </c>
       <c r="G48" s="19" t="n"/>
       <c r="H48" s="53" t="n"/>
       <c r="I48" s="21" t="inlineStr">
         <is>
-          <t>吉田 薫:英語</t>
+          <t>吉田:英講</t>
         </is>
       </c>
       <c r="J48" s="23" t="inlineStr">
         <is>
-          <t>寺田 幸村:英語</t>
+          <t>寺田:英講</t>
         </is>
       </c>
       <c r="K48" s="21" t="n"/>
@@ -9750,17 +9750,17 @@
       <c r="B7" s="15" t="n"/>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>俵 潤:英語</t>
+          <t>俵:英講</t>
         </is>
       </c>
       <c r="F7" s="21" t="n"/>
@@ -9780,12 +9780,12 @@
       <c r="B8" s="15" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -9806,12 +9806,12 @@
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="E9" s="28" t="n"/>
@@ -9954,34 +9954,34 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国語</t>
+          <t>金澤:国講</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="E15" s="23" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="F15" s="23" t="inlineStr">
         <is>
-          <t>俵 潤:英語</t>
+          <t>俵:英講</t>
         </is>
       </c>
       <c r="G15" s="32" t="n"/>
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国語</t>
+          <t>金澤:国講</t>
         </is>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="K15" s="19" t="n"/>
@@ -9996,12 +9996,12 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="D16" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="E16" s="23" t="n"/>
@@ -10010,12 +10010,12 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="J16" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="K16" s="19" t="n"/>
@@ -10030,12 +10030,12 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="E17" s="28" t="n"/>
@@ -10044,12 +10044,12 @@
       <c r="H17" s="37" t="n"/>
       <c r="I17" s="28" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="J17" s="29" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="K17" s="26" t="n"/>
@@ -10150,24 +10150,24 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:算数</t>
+          <t>金澤:算講</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
       <c r="F21" s="19" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:算数</t>
+          <t>金澤:算講</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="I21" s="21" t="n"/>
@@ -10184,29 +10184,29 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国算</t>
+          <t>金澤:国通</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="E22" s="19" t="n"/>
       <c r="F22" s="19" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国算</t>
+          <t>金澤:国通</t>
         </is>
       </c>
       <c r="H22" s="40" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -10222,24 +10222,24 @@
       <c r="B23" s="15" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="E23" s="19" t="n"/>
       <c r="F23" s="19" t="n"/>
       <c r="G23" s="21" t="inlineStr">
         <is>
-          <t>俵 潤:英語</t>
+          <t>俵:英講</t>
         </is>
       </c>
       <c r="H23" s="21" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="I23" s="21" t="n"/>
@@ -10256,7 +10256,7 @@
       <c r="B24" s="15" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -10382,12 +10382,12 @@
       <c r="B29" s="15" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国算</t>
+          <t>金澤:国通</t>
         </is>
       </c>
       <c r="D29" s="23" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -10396,12 +10396,12 @@
       <c r="H29" s="20" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>金澤 凛:国算</t>
+          <t>金澤:国通</t>
         </is>
       </c>
       <c r="J29" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="K29" s="43" t="n"/>
@@ -10416,12 +10416,12 @@
       <c r="B30" s="15" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
-          <t>俵 潤:英語</t>
+          <t>俵:英講</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -10430,7 +10430,7 @@
       <c r="H30" s="20" t="n"/>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -10446,12 +10446,12 @@
       <c r="B31" s="15" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -10472,7 +10472,7 @@
       <c r="B32" s="15" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="D32" s="23" t="n"/>
@@ -10480,12 +10480,12 @@
       <c r="F32" s="23" t="n"/>
       <c r="G32" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="H32" s="23" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="I32" s="21" t="n"/>
@@ -10506,12 +10506,12 @@
       <c r="F33" s="29" t="n"/>
       <c r="G33" s="28" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="H33" s="29" t="inlineStr">
         <is>
-          <t>西野 結菜:英語</t>
+          <t>西野:英講</t>
         </is>
       </c>
       <c r="I33" s="28" t="n"/>
@@ -10828,24 +10828,24 @@
       <c r="D47" s="19" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="F47" s="21" t="inlineStr">
         <is>
-          <t>俵 潤:英語</t>
+          <t>俵:英講</t>
         </is>
       </c>
       <c r="G47" s="19" t="n"/>
       <c r="H47" s="53" t="n"/>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>内海 光乃:英語</t>
+          <t>内海:英講</t>
         </is>
       </c>
       <c r="J47" s="23" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="K47" s="19" t="n"/>
@@ -10860,33 +10860,33 @@
       <c r="B48" s="15" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>丸本 琥太郎:英語</t>
+          <t>丸本:英講</t>
         </is>
       </c>
       <c r="F48" s="21" t="n"/>
       <c r="G48" s="21" t="inlineStr">
         <is>
-          <t>梅田 莉那:英語</t>
+          <t>梅田:英講</t>
         </is>
       </c>
       <c r="H48" s="40" t="inlineStr">
         <is>
-          <t>田中 にこ:英語</t>
+          <t>田中:英講</t>
         </is>
       </c>
       <c r="I48" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:英語</t>
+          <t>安平:英講</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -11426,12 +11426,12 @@
       <c r="B7" s="15" t="n"/>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:国語</t>
+          <t>増田:国講</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>侯 景耀:英語</t>
+          <t>侯:英通</t>
         </is>
       </c>
       <c r="E7" s="19" t="n"/>
@@ -11452,12 +11452,12 @@
       <c r="B8" s="15" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:国語</t>
+          <t>曳野:国講</t>
         </is>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="E8" s="19" t="n"/>
@@ -11478,12 +11478,12 @@
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="D9" s="29" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="E9" s="26" t="n"/>
@@ -11626,34 +11626,34 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>侯 景耀:英語</t>
+          <t>侯:英通</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="F15" s="23" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="G15" s="32" t="n"/>
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:国語</t>
+          <t>増田:国講</t>
         </is>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="K15" s="21" t="n"/>
@@ -11668,17 +11668,17 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:国語</t>
+          <t>増田:国講</t>
         </is>
       </c>
       <c r="D16" s="68" t="inlineStr">
         <is>
-          <t>曳野 鴻志:国語</t>
+          <t>曳野:国講</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="F16" s="23" t="n"/>
@@ -11686,17 +11686,17 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:国語</t>
+          <t>曳野:国講</t>
         </is>
       </c>
       <c r="J16" s="23" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="K16" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="L16" s="22" t="n"/>
@@ -11710,12 +11710,12 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="E17" s="28" t="n"/>
@@ -11724,12 +11724,12 @@
       <c r="H17" s="37" t="n"/>
       <c r="I17" s="28" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="J17" s="29" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="K17" s="28" t="n"/>
@@ -11830,43 +11830,43 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>侯 景耀:英語</t>
+          <t>侯:英通</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:国語</t>
+          <t>曳野:国講</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="F21" s="21" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="J21" s="23" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="L21" s="22" t="n"/>
@@ -11880,12 +11880,12 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>松井 流河:英語</t>
+          <t>松井:英講</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -11906,7 +11906,7 @@
       <c r="B23" s="15" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -11936,12 +11936,12 @@
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="L24" s="22" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
     </row>
@@ -11954,24 +11954,24 @@
       <c r="B25" s="25" t="n"/>
       <c r="C25" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="D25" s="28" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="E25" s="28" t="n"/>
       <c r="F25" s="69" t="n"/>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="H25" s="41" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="I25" s="28" t="n"/>
@@ -12074,30 +12074,30 @@
       <c r="B29" s="15" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="D29" s="23" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
       <c r="F29" s="23" t="n"/>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="J29" s="23" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="K29" s="43" t="n"/>
@@ -12156,12 +12156,12 @@
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="49" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="L32" s="50" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
     </row>
@@ -12174,31 +12174,31 @@
       <c r="B33" s="25" t="n"/>
       <c r="C33" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="D33" s="29" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="E33" s="28" t="n"/>
       <c r="F33" s="29" t="n"/>
       <c r="G33" s="28" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="H33" s="29" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="I33" s="28" t="n"/>
       <c r="J33" s="29" t="n"/>
       <c r="K33" s="51" t="inlineStr">
         <is>
-          <t>藤内 潤:英語</t>
+          <t>藤内:英講</t>
         </is>
       </c>
       <c r="L33" s="52" t="n"/>
@@ -12334,12 +12334,12 @@
       <c r="B39" s="15" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -12350,7 +12350,7 @@
       <c r="J39" s="19" t="n"/>
       <c r="K39" s="49" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="L39" s="50" t="n"/>
@@ -12364,12 +12364,12 @@
       <c r="B40" s="15" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>平田 幸之助:英語</t>
+          <t>平田:英講</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -12396,12 +12396,12 @@
       <c r="H41" s="64" t="n"/>
       <c r="I41" s="28" t="inlineStr">
         <is>
-          <t>安平 紗菜:国語</t>
+          <t>安平:国講</t>
         </is>
       </c>
       <c r="J41" s="29" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="K41" s="51" t="n"/>
@@ -12510,7 +12510,7 @@
       <c r="J45" s="20" t="n"/>
       <c r="K45" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="L45" s="22" t="n"/>
@@ -12542,12 +12542,12 @@
       <c r="B47" s="15" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>荒井 雄一郎:国語</t>
+          <t>荒井:国講</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>増田 ことの:文系</t>
+          <t>増田:文通</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -13108,22 +13108,22 @@
       <c r="F7" s="20" t="n"/>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>中村 正人:英語</t>
+          <t>中村:英通</t>
         </is>
       </c>
       <c r="H7" s="23" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="I7" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="J7" s="23" t="inlineStr">
         <is>
-          <t>中津 知佳:理社</t>
+          <t>中津:理講</t>
         </is>
       </c>
       <c r="K7" s="19" t="n"/>
@@ -13142,17 +13142,17 @@
       <c r="F8" s="20" t="n"/>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="I8" s="23" t="inlineStr">
         <is>
-          <t>酒井 康行:文系</t>
+          <t>酒井:文講</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -13308,17 +13308,17 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:文系</t>
+          <t>酒井:文講</t>
         </is>
       </c>
       <c r="F15" s="23" t="n"/>
@@ -13338,22 +13338,22 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>中村 正人:英語</t>
+          <t>中村:英通</t>
         </is>
       </c>
       <c r="D16" s="23" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="F16" s="23" t="inlineStr">
         <is>
-          <t>中津 知佳:理社</t>
+          <t>中津:理講</t>
         </is>
       </c>
       <c r="G16" s="32" t="n"/>
@@ -13656,12 +13656,12 @@
       <c r="F29" s="20" t="n"/>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="H29" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="I29" s="21" t="n"/>
@@ -13682,12 +13682,12 @@
       <c r="F30" s="20" t="n"/>
       <c r="G30" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="H30" s="23" t="inlineStr">
         <is>
-          <t>中津 知佳:理社</t>
+          <t>中津:理講</t>
         </is>
       </c>
       <c r="I30" s="21" t="n"/>
@@ -13708,12 +13708,12 @@
       <c r="F31" s="20" t="n"/>
       <c r="G31" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="H31" s="23" t="inlineStr">
         <is>
-          <t>酒井 康行:文系</t>
+          <t>酒井:文講</t>
         </is>
       </c>
       <c r="I31" s="21" t="n"/>
@@ -13738,12 +13738,12 @@
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="49" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="L32" s="50" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
     </row>
@@ -13896,39 +13896,39 @@
       <c r="B39" s="15" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:文系</t>
+          <t>酒井:文講</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="F39" s="21" t="n"/>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="H39" s="40" t="n"/>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="J39" s="23" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="K39" s="49" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="L39" s="50" t="n"/>
@@ -13942,24 +13942,24 @@
       <c r="B40" s="15" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="F40" s="21" t="n"/>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="H40" s="40" t="inlineStr">
         <is>
-          <t>中津 知佳:理社</t>
+          <t>中津:理講</t>
         </is>
       </c>
       <c r="I40" s="21" t="n"/>
@@ -14116,33 +14116,33 @@
       <c r="B47" s="15" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>田嶋 玲奈:英語</t>
+          <t>田嶋:英通</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="F47" s="21" t="n"/>
       <c r="G47" s="21" t="inlineStr">
         <is>
-          <t>ローズ オーウェン:国語</t>
+          <t>ローズ:国講</t>
         </is>
       </c>
       <c r="H47" s="40" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>佐山 樹:国語</t>
+          <t>佐山:国講</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -14158,19 +14158,19 @@
       <c r="B48" s="15" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:数学</t>
+          <t>丸山:数講</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>酒井 康行:文系</t>
+          <t>酒井:文講</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
       <c r="F48" s="21" t="n"/>
       <c r="G48" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:理社</t>
+          <t>中津:理講</t>
         </is>
       </c>
       <c r="H48" s="40" t="n"/>
@@ -14872,7 +14872,7 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="D15" s="23" t="n"/>
@@ -14894,7 +14894,7 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:英語</t>
+          <t>佐竹:英講</t>
         </is>
       </c>
       <c r="D16" s="23" t="n"/>
@@ -14904,7 +14904,7 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:英語</t>
+          <t>佐竹:英講</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -14920,7 +14920,7 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:英語</t>
+          <t>高橋:英講</t>
         </is>
       </c>
       <c r="D17" s="29" t="n"/>
@@ -14930,7 +14930,7 @@
       <c r="H17" s="37" t="n"/>
       <c r="I17" s="28" t="inlineStr">
         <is>
-          <t>高橋 実央:英語</t>
+          <t>高橋:英講</t>
         </is>
       </c>
       <c r="J17" s="29" t="n"/>
@@ -15036,12 +15036,12 @@
       <c r="F21" s="19" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>仲村 海音:英語</t>
+          <t>仲村:英講</t>
         </is>
       </c>
       <c r="I21" s="23" t="n"/>
@@ -15064,7 +15064,7 @@
       <c r="H22" s="40" t="n"/>
       <c r="I22" s="23" t="inlineStr">
         <is>
-          <t>佐竹 優:英語</t>
+          <t>佐竹:英講</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -15080,7 +15080,7 @@
       <c r="B23" s="15" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:英語</t>
+          <t>佐竹:英講</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -15106,7 +15106,7 @@
       <c r="F24" s="19" t="n"/>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>高橋 実央:英語</t>
+          <t>高橋:英講</t>
         </is>
       </c>
       <c r="H24" s="40" t="n"/>
@@ -15286,12 +15286,12 @@
       <c r="F32" s="20" t="n"/>
       <c r="G32" s="23" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="H32" s="23" t="inlineStr">
         <is>
-          <t>高橋 実央:英語</t>
+          <t>高橋:英講</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -15466,19 +15466,19 @@
       <c r="B40" s="15" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>佐竹 優:英語</t>
+          <t>佐竹:英講</t>
         </is>
       </c>
       <c r="E40" s="19" t="n"/>
       <c r="F40" s="19" t="n"/>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="H40" s="40" t="n"/>
@@ -15500,7 +15500,7 @@
       <c r="F41" s="26" t="n"/>
       <c r="G41" s="28" t="inlineStr">
         <is>
-          <t>仲村 海音:英語</t>
+          <t>仲村:英講</t>
         </is>
       </c>
       <c r="H41" s="41" t="n"/>
@@ -15676,7 +15676,7 @@
       <c r="B49" s="25" t="n"/>
       <c r="C49" s="28" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="D49" s="28" t="n"/>
@@ -15684,12 +15684,12 @@
       <c r="F49" s="26" t="n"/>
       <c r="G49" s="28" t="inlineStr">
         <is>
-          <t>冨永 直希:英語</t>
+          <t>冨永:英講</t>
         </is>
       </c>
       <c r="H49" s="41" t="inlineStr">
         <is>
-          <t>高橋 実央:英語</t>
+          <t>高橋:英講</t>
         </is>
       </c>
       <c r="I49" s="26" t="n"/>
@@ -16144,7 +16144,7 @@
       <c r="J5" s="20" t="n"/>
       <c r="K5" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="L5" s="22" t="n"/>
@@ -16166,7 +16166,7 @@
       <c r="J6" s="20" t="n"/>
       <c r="K6" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="L6" s="22" t="n"/>
@@ -16180,23 +16180,23 @@
       <c r="B7" s="15" t="n"/>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="F7" s="23" t="n"/>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="H7" s="23" t="n"/>
@@ -16218,17 +16218,17 @@
       <c r="F8" s="23" t="n"/>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="H8" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -16384,17 +16384,17 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="F15" s="23" t="n"/>
@@ -16402,12 +16402,12 @@
       <c r="H15" s="33" t="n"/>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="K15" s="19" t="n"/>
@@ -16428,7 +16428,7 @@
       <c r="H16" s="33" t="n"/>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -16548,19 +16548,19 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="F21" s="21" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="H21" s="40" t="n"/>
@@ -16568,7 +16568,7 @@
       <c r="J21" s="21" t="n"/>
       <c r="K21" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="L21" s="22" t="n"/>
@@ -16582,7 +16582,7 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -16590,19 +16590,19 @@
       <c r="F22" s="21" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="H22" s="40" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="I22" s="21" t="n"/>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="L22" s="22" t="n"/>
@@ -16968,7 +16968,7 @@
       <c r="B39" s="15" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>前原 有希:国語</t>
+          <t>前原:国講</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -16976,17 +16976,17 @@
       <c r="F39" s="21" t="n"/>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="H39" s="40" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="J39" s="21" t="n"/>
@@ -17132,7 +17132,7 @@
       <c r="J45" s="20" t="n"/>
       <c r="K45" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="L45" s="22" t="n"/>
@@ -17164,7 +17164,7 @@
       <c r="B47" s="15" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -17172,12 +17172,12 @@
       <c r="F47" s="21" t="n"/>
       <c r="G47" s="21" t="inlineStr">
         <is>
-          <t>森下 美結:国語</t>
+          <t>森下:国講</t>
         </is>
       </c>
       <c r="H47" s="40" t="inlineStr">
         <is>
-          <t>中津 知佳:国語</t>
+          <t>中津:国講</t>
         </is>
       </c>
       <c r="I47" s="21" t="n"/>
@@ -17200,7 +17200,7 @@
       <c r="H48" s="21" t="n"/>
       <c r="I48" s="21" t="inlineStr">
         <is>
-          <t>末光 琉偉:国語</t>
+          <t>末光:国講</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -17684,7 +17684,7 @@
       <c r="J5" s="20" t="n"/>
       <c r="K5" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="L5" s="22" t="n"/>
@@ -17718,12 +17718,12 @@
       <c r="D7" s="20" t="n"/>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="F7" s="23" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="G7" s="19" t="n"/>
@@ -17744,7 +17744,7 @@
       <c r="D8" s="20" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>小副川 怜:英語</t>
+          <t>小副川:英講</t>
         </is>
       </c>
       <c r="F8" s="23" t="n"/>
@@ -17904,7 +17904,7 @@
       <c r="B15" s="15" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="D15" s="23" t="n"/>
@@ -17926,7 +17926,7 @@
       <c r="B16" s="15" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="D16" s="23" t="n"/>
@@ -17948,7 +17948,7 @@
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="D17" s="29" t="n"/>
@@ -18056,24 +18056,24 @@
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="E21" s="19" t="n"/>
       <c r="F21" s="19" t="n"/>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="I21" s="19" t="n"/>
@@ -18090,7 +18090,7 @@
       <c r="B22" s="15" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -18098,7 +18098,7 @@
       <c r="F22" s="19" t="n"/>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="H22" s="40" t="n"/>
@@ -18138,7 +18138,7 @@
       <c r="F24" s="19" t="n"/>
       <c r="G24" s="21" t="inlineStr">
         <is>
-          <t>小副川 怜:英語</t>
+          <t>小副川:英講</t>
         </is>
       </c>
       <c r="H24" s="40" t="n"/>
@@ -18314,24 +18314,24 @@
       <c r="B32" s="15" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="E32" s="19" t="n"/>
       <c r="F32" s="20" t="n"/>
       <c r="G32" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="H32" s="23" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="I32" s="19" t="n"/>
@@ -18348,7 +18348,7 @@
       <c r="B33" s="25" t="n"/>
       <c r="C33" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="D33" s="29" t="n"/>
@@ -18356,7 +18356,7 @@
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="28" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="H33" s="29" t="n"/>
@@ -18518,12 +18518,12 @@
       <c r="F40" s="19" t="n"/>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="H40" s="40" t="inlineStr">
         <is>
-          <t>小副川 怜:英語</t>
+          <t>小副川:英講</t>
         </is>
       </c>
       <c r="I40" s="19" t="n"/>
@@ -18544,7 +18544,7 @@
       <c r="F41" s="26" t="n"/>
       <c r="G41" s="28" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="H41" s="41" t="n"/>
@@ -18706,12 +18706,12 @@
       <c r="F48" s="19" t="n"/>
       <c r="G48" s="21" t="inlineStr">
         <is>
-          <t>丸山 惺大:英語</t>
+          <t>丸山:英講</t>
         </is>
       </c>
       <c r="H48" s="40" t="inlineStr">
         <is>
-          <t>小副川 怜:英語</t>
+          <t>小副川:英講</t>
         </is>
       </c>
       <c r="I48" s="19" t="n"/>
@@ -18732,12 +18732,12 @@
       <c r="F49" s="26" t="n"/>
       <c r="G49" s="28" t="inlineStr">
         <is>
-          <t>石綿 辰之助:数学</t>
+          <t>石綿:数講</t>
         </is>
       </c>
       <c r="H49" s="41" t="inlineStr">
         <is>
-          <t>曳野 鴻志:英語</t>
+          <t>曳野:英講</t>
         </is>
       </c>
       <c r="I49" s="26" t="n"/>
